--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3950.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3950.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274995698714227</v>
+        <v>0.4703348577022552</v>
       </c>
       <c r="B1">
-        <v>2.425593866919985</v>
+        <v>1.426826953887939</v>
       </c>
       <c r="C1">
-        <v>6.792223406840543</v>
+        <v>4.734130859375</v>
       </c>
       <c r="D1">
-        <v>2.892301725507712</v>
+        <v>1.41790771484375</v>
       </c>
       <c r="E1">
-        <v>1.338104905137399</v>
+        <v>0.8192694187164307</v>
       </c>
     </row>
   </sheetData>
